--- a/assets/Loyalty_PlandeMetricas.xlsx
+++ b/assets/Loyalty_PlandeMetricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf7efb337b21b58/Documents/ADRI/EDVai/TrabajoFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="11_46B5E3CBA4F57AF3DFA22BFC1CFC9D30621DDC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39549353-D1B0-4F94-B71D-0F78D08CA89E}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="11_46B5E3CBA4F57AF3DFA22BFC1CFC9D30621DDC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC82F65-957B-4CA3-B7AA-15A58486B744}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
   <si>
     <t>Tipo</t>
   </si>
@@ -384,16 +384,263 @@
   <si>
     <t>DIVIDE(   [AvgQAltasPromo] - [AvgQAltasAntesPromo], [AvgQAltasAntesPromo], 0   ) * 100,1)</t>
   </si>
+  <si>
+    <t>Historico</t>
+  </si>
+  <si>
+    <t>%DeltaQVuelos</t>
+  </si>
+  <si>
+    <t>DIVIDE(    [QVuelos] - [QVuelosNoPromo],     [QVuelos],    0)</t>
+  </si>
+  <si>
+    <t>%YoY_Qvuelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIVIDE(    [QVuelos_2018] - [QVuelos_2017], [QVuelos_2017], 0  ) * 100,1)</t>
+  </si>
+  <si>
+    <t>%YoY_RedeemUSD</t>
+  </si>
+  <si>
+    <t>DIVIDE(   [sumRedeemUSD_2018] - [sumRedeemUSD_2017], [sumRedeemUSD_2017], 0  ) * 100,1)</t>
+  </si>
+  <si>
+    <t>Qvuelos</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalVuelos],  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>QVuelos_2017</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalVuelos],  FFlightActivity[period_year] = 2017,  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>QVuelos_2018</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalVuelos],  FFlightActivity[period_year] = 2018,  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>QVuelosNoPromo</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalVuelos],  DimCustomers[tipo_enrollment] &lt;&gt; "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumPuntosAcum</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosAcum],  DimCustomers[tipo_enrollment] = "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad], DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumPuntosAcum_noPromo</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosAcum],  DimCustomers[tipo_enrollment] &lt;&gt; "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad], DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumPuntosRedeem</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosRedeemed],   DimCustomers[tipo_enrollment] = "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumPuntosRedeem_noPromo</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosRedeemed],  DimCustomers[tipo_enrollment] &lt;&gt; "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumRedeemUSD</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosenUSD],  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumRedeemUSD_2017</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosenUSD],   FFlightActivity[period_year] = 2017,   USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumRedeemUSD_2018</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosenUSD],  FFlightActivity[period_year] = 2018,  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>sumRedeemUSD_NoPromo</t>
+  </si>
+  <si>
+    <t>CALCULATE(  [TotalPuntosenUSD],  DimCustomers[tipo_enrollment] &lt;&gt; "P",  USERELATIONSHIP(FFlightActivity[fecha_actividad],DimCalendar[Date]))</t>
+  </si>
+  <si>
+    <t>TotalPuntosAcum</t>
+  </si>
+  <si>
+    <t>sum(FFlightActivity[points_accumulated])</t>
+  </si>
+  <si>
+    <t>TotalPuntosenUSD</t>
+  </si>
+  <si>
+    <t>SUM(FFlightActivity[cost_points_redeemed])</t>
+  </si>
+  <si>
+    <t>TotalPuntosRedeemed</t>
+  </si>
+  <si>
+    <t>SUM(FFlightActivity[Points_Redeemed])</t>
+  </si>
+  <si>
+    <t>TotalVuelos</t>
+  </si>
+  <si>
+    <t>SUM(FFlightActivity[Total_Flights])</t>
+  </si>
+  <si>
+    <t>Total de Vuelos</t>
+  </si>
+  <si>
+    <t>Tiempo, Temporada</t>
+  </si>
+  <si>
+    <t>Total de Vuelos periodo 2017</t>
+  </si>
+  <si>
+    <t>Total de Vuelos periodo 2018</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[Total_Flights]</t>
+  </si>
+  <si>
+    <t>Sumatoria de vuelos</t>
+  </si>
+  <si>
+    <t>Sumatoria de vuelos del periodo 2017</t>
+  </si>
+  <si>
+    <t>Sumatoria de vuelos del periodo 2018</t>
+  </si>
+  <si>
+    <t>Total de Vuelos por fuera de la campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria de vuelos de miembros cuyo tipo de enrollment no sea por campaña</t>
+  </si>
+  <si>
+    <t>Contribucion de la campaña a la reserva de vuelos</t>
+  </si>
+  <si>
+    <t>Relacion porcentual entre el total de vuelos del dataset y el total de vuelos de miembros de la campaña</t>
+  </si>
+  <si>
+    <t>Relacion porcentual del total de vuelos en 2018 con el 2017</t>
+  </si>
+  <si>
+    <t>Division entre sumatoria de vuelos periodo 2018 y sumatoria de vuelos periodo 2017</t>
+  </si>
+  <si>
+    <t>Total de puntos acumulados</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[points_accumulated]</t>
+  </si>
+  <si>
+    <t>Total de puntos acumulados por miembros dados de alta durante la campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[points_accumulated] cuyos miembros tengan tipo de enrollement igual a campaña</t>
+  </si>
+  <si>
+    <t>Total de puntos acumulados por miembros dados de alta fuera del periodo de la campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[points_accumulated] cuyos miembros tengan tipo de enrollement sea distinto a campaña</t>
+  </si>
+  <si>
+    <t>Total de puntos canjeados</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[Points_Redeemed]</t>
+  </si>
+  <si>
+    <t>Total de puntos canjeados por miembros de la campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[Points_Redeemed] cuyos miembros tengan tipo enrollment igual a campaña</t>
+  </si>
+  <si>
+    <t>Total de puntos canjeados por miembros dados de alta fuera del periodo de campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[Points_Redeemed] cuyos miembros tengan tipo enrollment distinto a campaña</t>
+  </si>
+  <si>
+    <t>Costo total por puntos canjeados</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[cost_points_redeemed]</t>
+  </si>
+  <si>
+    <t>Suma total del costo por puntos canjeados en un periodo</t>
+  </si>
+  <si>
+    <t>Division entre [el Promedio de altas de miembros mensual durante la campaña menos el promedio de altas anterior a la campaña] y el alta de miembros mensual anterior a la campaña</t>
+  </si>
+  <si>
+    <t>Division entre [el Promedio de altas de miembros mensual posterior a la campaña menos el promedio de altas anterior a la campaña] y el alta de miembros mensual anterior a la campaña</t>
+  </si>
+  <si>
+    <t>Recuento de altas (aquellas con dato en Enrollment_Year) del mismo periodo pero del año anterior</t>
+  </si>
+  <si>
+    <t>Recuento de bajas (aquellas con dato en Cancellation_Year) del mismo periodo pero del año anterior</t>
+  </si>
+  <si>
+    <t>Suma total del costo por puntos canjeados en año 2017</t>
+  </si>
+  <si>
+    <t>Suma total del costo por puntos canjeados en año 2018</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[cost_points_redeemed] cuyo  FFlightActivity[period_year] = 2017</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[cost_points_redeemed] cuyo  FFlightActivity[period_year] = 2018</t>
+  </si>
+  <si>
+    <t>Suma total del costo por puntos canjeados fuera del periodo de campaña</t>
+  </si>
+  <si>
+    <t>Sumatoria del campo FFlightActivity[cost_points_redeemed] cuyo  tipo enrollment sea distinto al de campaña</t>
+  </si>
+  <si>
+    <t>Relacion porcentual entre el total del costo por puntos canjeados en año 2018 y año 2017</t>
+  </si>
+  <si>
+    <t>Primero realizar la resta entre total costo puntos canjeados 2018 menos total costo puntos canjeados 2017, y a ese resultado dividirlo por el total costo puntos canjeados en 2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -473,25 +720,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -499,6 +755,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,6 +808,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,10 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB06DD-0665-494D-BEB0-D56F4AB0A0AE}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -928,7 +1195,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1391,9 @@
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>109</v>
       </c>
@@ -1148,7 +1417,9 @@
       <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>111</v>
       </c>
@@ -1414,7 +1685,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +1701,9 @@
       <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>103</v>
       </c>
@@ -1438,7 +1711,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +1727,9 @@
       <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>105</v>
       </c>
@@ -1462,9 +1737,443 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="7">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="7">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
-    <sortCondition ref="B2:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
+    <sortCondition ref="B2:B46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
